--- a/biology/Botanique/Helianthemum_oelandicum/Helianthemum_oelandicum.xlsx
+++ b/biology/Botanique/Helianthemum_oelandicum/Helianthemum_oelandicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hélianthème d'Œland
 Helianthemum oelandicum, Hélianthème d'Œland ou Hélianthème d'Italie, est une espèce de plantes à fleurs de la famille des Cistaceae originaire d'Europe.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une petite plante vivace chaméphyte à fleurs jaunes qui pousse dans les garrigues[4] .
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une petite plante vivace chaméphyte à fleurs jaunes qui pousse dans les garrigues .
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a pour aire de répartition l'Europe[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a pour aire de répartition l'Europe. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (3 décembre 2020)[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (3 décembre 2020)
 Helianthemum oelandicum subsp. oelandicum, endémique de Suède (Öland) ;
 Helianthemum oelandicum subsp. nebrodense (Heldr. ex Guss.) Greuter &amp; Burdet, endémique de Sicile ;
 Helianthemum oelandicum subsp. piloselloides (Lapeyr.) Greuter &amp; Burdet, originaire d’Irlande, des Pyrénées et du Nord de l'Espagne ;
